--- a/results/JayaFeaturesTrainPrepared/Sheet1/ROC_data/RandomForest_averaged_roc_data_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/ROC_data/RandomForest_averaged_roc_data_1_features.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>0.0101010101010101</v>
       </c>
       <c r="B3">
-        <v>0.01909886746250383</v>
+        <v>0.1270339761248852</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>0.0202020202020202</v>
       </c>
       <c r="B4">
-        <v>0.03819773492500766</v>
+        <v>0.1540679522497705</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="B5">
-        <v>0.05729660238751148</v>
+        <v>0.1811019283746557</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>0.04040404040404041</v>
       </c>
       <c r="B6">
-        <v>0.07639546985001532</v>
+        <v>0.2081359044995409</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>0.05050505050505051</v>
       </c>
       <c r="B7">
-        <v>0.09549433731251915</v>
+        <v>0.2351698806244261</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="B8">
-        <v>0.1304058769513315</v>
+        <v>0.291900826446281</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>0.07070707070707072</v>
       </c>
       <c r="B9">
-        <v>0.142746250382614</v>
+        <v>0.3056014692378329</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>0.08080808080808081</v>
       </c>
       <c r="B10">
-        <v>0.1550866238138965</v>
+        <v>0.3193021120293847</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="B11">
-        <v>0.1674269972451791</v>
+        <v>0.3330027548209367</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>0.101010101010101</v>
       </c>
       <c r="B12">
-        <v>0.1797673706764616</v>
+        <v>0.3467033976124886</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="B13">
-        <v>0.1921077441077441</v>
+        <v>0.4004040404040404</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="B14">
-        <v>0.2105087235996327</v>
+        <v>0.4315151515151515</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>0.1313131313131313</v>
       </c>
       <c r="B15">
-        <v>0.2289097030915213</v>
+        <v>0.4363636363636363</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>0.1414141414141414</v>
       </c>
       <c r="B16">
-        <v>0.2473106825834099</v>
+        <v>0.4412121212121212</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>0.1515151515151515</v>
       </c>
       <c r="B17">
-        <v>0.2657116620752984</v>
+        <v>0.4460606060606061</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>0.1616161616161616</v>
       </c>
       <c r="B18">
-        <v>0.2841126415671871</v>
+        <v>0.4509090909090909</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>0.1717171717171717</v>
       </c>
       <c r="B19">
-        <v>0.3600893786348333</v>
+        <v>0.4557575757575758</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="B20">
-        <v>0.3736418732782369</v>
+        <v>0.4606060606060606</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>0.1919191919191919</v>
       </c>
       <c r="B21">
-        <v>0.3871943679216406</v>
+        <v>0.4654545454545455</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>0.202020202020202</v>
       </c>
       <c r="B22">
-        <v>0.4007468625650444</v>
+        <v>0.4703030303030303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>0.2121212121212121</v>
       </c>
       <c r="B23">
-        <v>0.4142993572084482</v>
+        <v>0.4751515151515151</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="B24">
-        <v>0.4278518518518519</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>0.2323232323232323</v>
       </c>
       <c r="B25">
-        <v>0.4414043464952556</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>0.2424242424242424</v>
       </c>
       <c r="B26">
-        <v>0.4549568411386593</v>
+        <v>0.5163636363636364</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>0.2525252525252525</v>
       </c>
       <c r="B27">
-        <v>0.468509335782063</v>
+        <v>0.5163636363636364</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>0.2626262626262627</v>
       </c>
       <c r="B28">
-        <v>0.4820618304254667</v>
+        <v>0.5163636363636364</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>0.2727272727272728</v>
       </c>
       <c r="B29">
-        <v>0.4956143250688705</v>
+        <v>0.5163636363636364</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>0.2828282828282829</v>
       </c>
       <c r="B30">
-        <v>0.5075910621365167</v>
+        <v>0.5163636363636364</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>0.2929292929292929</v>
       </c>
       <c r="B31">
-        <v>0.5179920416284053</v>
+        <v>0.5163636363636364</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>0.303030303030303</v>
       </c>
       <c r="B32">
-        <v>0.531147842056933</v>
+        <v>0.5191184573002754</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>0.3131313131313131</v>
       </c>
       <c r="B33">
-        <v>0.5446709519436793</v>
+        <v>0.5222405876951332</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>0.3232323232323233</v>
       </c>
       <c r="B34">
-        <v>0.5581940618304255</v>
+        <v>0.5253627180899908</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="B35">
-        <v>0.5717171717171718</v>
+        <v>0.5484848484848485</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>0.3434343434343435</v>
       </c>
       <c r="B36">
-        <v>0.5870584634220999</v>
+        <v>0.551606978879706</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>0.3535353535353536</v>
       </c>
       <c r="B37">
-        <v>0.6018515735871108</v>
+        <v>0.5910009182736455</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="B38">
-        <v>0.6078737791134485</v>
+        <v>0.5925619834710744</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>0.3737373737373738</v>
       </c>
       <c r="B39">
-        <v>0.6138959846397863</v>
+        <v>0.5941230486685032</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>0.3838383838383839</v>
       </c>
       <c r="B40">
-        <v>0.6199181901661242</v>
+        <v>0.595684113865932</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>0.393939393939394</v>
       </c>
       <c r="B41">
-        <v>0.6254445279238667</v>
+        <v>0.5972451790633608</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>0.4040404040404041</v>
       </c>
       <c r="B42">
-        <v>0.6304749979130145</v>
+        <v>0.5988062442607898</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>0.4141414141414142</v>
       </c>
       <c r="B43">
-        <v>0.6358727773603807</v>
+        <v>0.6003673094582185</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="B44">
-        <v>0.6424643125469572</v>
+        <v>0.6019283746556473</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>0.4343434343434344</v>
       </c>
       <c r="B45">
-        <v>0.6490558477335338</v>
+        <v>0.6034894398530761</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="B46">
-        <v>0.6556473829201102</v>
+        <v>0.6050505050505051</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>0.4545454545454546</v>
       </c>
       <c r="B47">
-        <v>0.6622389181066868</v>
+        <v>0.6066115702479339</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>0.4646464646464647</v>
       </c>
       <c r="B48">
-        <v>0.6688304532932634</v>
+        <v>0.6081726354453627</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>0.4747474747474748</v>
       </c>
       <c r="B49">
-        <v>0.6754219884798398</v>
+        <v>0.6097337006427915</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="B50">
-        <v>0.6820135236664162</v>
+        <v>0.6112947658402204</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>0.494949494949495</v>
       </c>
       <c r="B51">
-        <v>0.6886050588529928</v>
+        <v>0.6128558310376493</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>0.5050505050505051</v>
       </c>
       <c r="B52">
-        <v>0.6951965940395693</v>
+        <v>0.6165381083562902</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>0.5151515151515152</v>
       </c>
       <c r="B53">
-        <v>0.7017881292261458</v>
+        <v>0.6223415977961433</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="B54">
-        <v>0.7083796644127223</v>
+        <v>0.6281450872359964</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>0.5353535353535354</v>
       </c>
       <c r="B55">
-        <v>0.7149711995992988</v>
+        <v>0.6339485766758494</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="B56">
-        <v>0.7215627347858753</v>
+        <v>0.6397520661157026</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="B57">
-        <v>0.7281542699724518</v>
+        <v>0.6855555555555556</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>0.5656565656565657</v>
       </c>
       <c r="B58">
-        <v>0.7347458051590283</v>
+        <v>0.6913590449954087</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="B59">
-        <v>0.7413373403456048</v>
+        <v>0.6971625344352617</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>0.5858585858585859</v>
       </c>
       <c r="B60">
-        <v>0.7479288755321813</v>
+        <v>0.7029660238751149</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>0.595959595959596</v>
       </c>
       <c r="B61">
-        <v>0.7545204107187578</v>
+        <v>0.7257575757575758</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>0.6060606060606061</v>
       </c>
       <c r="B62">
-        <v>0.7611119459053344</v>
+        <v>0.7300000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>0.6161616161616162</v>
       </c>
       <c r="B63">
-        <v>0.7677034810919109</v>
+        <v>0.7342424242424244</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="B64">
-        <v>0.7742950162784874</v>
+        <v>0.7384848484848485</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>0.6363636363636365</v>
       </c>
       <c r="B65">
-        <v>0.7808865514650639</v>
+        <v>0.7427272727272728</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>0.6464646464646465</v>
       </c>
       <c r="B66">
-        <v>0.7874780866516404</v>
+        <v>0.7469696969696971</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>0.6565656565656566</v>
       </c>
       <c r="B67">
-        <v>0.7935798758939254</v>
+        <v>0.7512121212121212</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="B68">
-        <v>0.7996510560146924</v>
+        <v>0.7554545454545456</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="B69">
-        <v>0.8057222361354593</v>
+        <v>0.7560606060606061</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>0.686868686868687</v>
       </c>
       <c r="B70">
-        <v>0.8117934162562263</v>
+        <v>0.7566666666666667</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>0.696969696969697</v>
       </c>
       <c r="B71">
-        <v>0.817864596376993</v>
+        <v>0.7572727272727273</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>0.7070707070707072</v>
       </c>
       <c r="B72">
-        <v>0.8239357764977602</v>
+        <v>0.7578787878787879</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>0.7171717171717172</v>
       </c>
       <c r="B73">
-        <v>0.830006956618527</v>
+        <v>0.7584848484848485</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="B74">
-        <v>0.8360781367392939</v>
+        <v>0.7590909090909091</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>0.7373737373737375</v>
       </c>
       <c r="B75">
-        <v>0.8421493168600607</v>
+        <v>0.7596969696969698</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>0.7474747474747475</v>
       </c>
       <c r="B76">
-        <v>0.8482204969808276</v>
+        <v>0.7603030303030304</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>0.7575757575757577</v>
       </c>
       <c r="B77">
-        <v>0.8542916771015945</v>
+        <v>0.760909090909091</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>0.7676767676767677</v>
       </c>
       <c r="B78">
-        <v>0.8603628572223615</v>
+        <v>0.7615151515151516</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="B79">
-        <v>0.8664340373431283</v>
+        <v>0.7621212121212122</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>0.787878787878788</v>
       </c>
       <c r="B80">
-        <v>0.8725052174638952</v>
+        <v>0.7627272727272728</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>0.797979797979798</v>
       </c>
       <c r="B81">
-        <v>0.8785763975846621</v>
+        <v>0.7633333333333334</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>0.8080808080808082</v>
       </c>
       <c r="B82">
-        <v>0.8846475777054289</v>
+        <v>0.7639393939393939</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="B83">
-        <v>0.8907187578261959</v>
+        <v>0.7645454545454546</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>0.8282828282828284</v>
       </c>
       <c r="B84">
-        <v>0.8967899379469626</v>
+        <v>0.7676002448729722</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>0.8383838383838385</v>
       </c>
       <c r="B85">
-        <v>0.9028611180677297</v>
+        <v>0.7991674318947047</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>0.8484848484848485</v>
       </c>
       <c r="B86">
-        <v>0.9089322981884967</v>
+        <v>0.8164921946740129</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>0.8585858585858587</v>
       </c>
       <c r="B87">
-        <v>0.9150034783092634</v>
+        <v>0.8338169574533213</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>0.8686868686868687</v>
       </c>
       <c r="B88">
-        <v>0.9210746584300302</v>
+        <v>0.8511417202326292</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>0.8787878787878789</v>
       </c>
       <c r="B89">
-        <v>0.9271458385507974</v>
+        <v>0.8684664830119377</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="B90">
-        <v>0.9332170186715641</v>
+        <v>0.9037710437710438</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>0.8989898989898991</v>
       </c>
       <c r="B91">
-        <v>0.9392881987923311</v>
+        <v>0.9107009488827671</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>0.9090909090909092</v>
       </c>
       <c r="B92">
-        <v>0.9453593789130981</v>
+        <v>0.9176308539944904</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>0.9191919191919192</v>
       </c>
       <c r="B93">
-        <v>0.951430559033865</v>
+        <v>0.9245607591062136</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>0.9292929292929294</v>
       </c>
       <c r="B94">
-        <v>0.9575017391546318</v>
+        <v>0.931490664217937</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>0.9393939393939394</v>
       </c>
       <c r="B95">
-        <v>0.9635729192753987</v>
+        <v>0.9384205693296603</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>0.9494949494949496</v>
       </c>
       <c r="B96">
-        <v>0.9696440993961655</v>
+        <v>0.9471686562595656</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>0.9595959595959597</v>
       </c>
       <c r="B97">
-        <v>0.9757152795169326</v>
+        <v>0.9577349250076523</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>0.9696969696969697</v>
       </c>
       <c r="B98">
-        <v>0.9817864596376993</v>
+        <v>0.9683011937557392</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>0.9797979797979799</v>
       </c>
       <c r="B99">
-        <v>0.9878576397584663</v>
+        <v>0.9788674625038262</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>0.9898989898989899</v>
       </c>
       <c r="B100">
-        <v>0.9939288198792331</v>
+        <v>0.989433731251913</v>
       </c>
     </row>
     <row r="101" spans="1:2">

--- a/results/JayaFeaturesTrainPrepared/Sheet1/ROC_data/RandomForest_averaged_roc_data_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/ROC_data/RandomForest_averaged_roc_data_1_features.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.05454545454545454</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>0.0101010101010101</v>
       </c>
       <c r="B3">
-        <v>0.1270339761248852</v>
+        <v>0.07988062442607897</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>0.0202020202020202</v>
       </c>
       <c r="B4">
-        <v>0.1540679522497705</v>
+        <v>0.1052157943067034</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="B5">
-        <v>0.1811019283746557</v>
+        <v>0.1305509641873278</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>0.04040404040404041</v>
       </c>
       <c r="B6">
-        <v>0.2081359044995409</v>
+        <v>0.1558861340679522</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>0.05050505050505051</v>
       </c>
       <c r="B7">
-        <v>0.2351698806244261</v>
+        <v>0.1812213039485767</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="B8">
-        <v>0.291900826446281</v>
+        <v>0.198732782369146</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>0.07070707070707072</v>
       </c>
       <c r="B9">
-        <v>0.3056014692378329</v>
+        <v>0.2064003673094582</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>0.08080808080808081</v>
       </c>
       <c r="B10">
-        <v>0.3193021120293847</v>
+        <v>0.2140679522497704</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="B11">
-        <v>0.3330027548209367</v>
+        <v>0.2217355371900827</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>0.101010101010101</v>
       </c>
       <c r="B12">
-        <v>0.3467033976124886</v>
+        <v>0.2294031221303949</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="B13">
-        <v>0.4004040404040404</v>
+        <v>0.2570707070707071</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="B14">
-        <v>0.4315151515151515</v>
+        <v>0.2636363636363636</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>0.1313131313131313</v>
       </c>
       <c r="B15">
-        <v>0.4363636363636363</v>
+        <v>0.2681818181818182</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>0.1414141414141414</v>
       </c>
       <c r="B16">
-        <v>0.4412121212121212</v>
+        <v>0.2727272727272728</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>0.1515151515151515</v>
       </c>
       <c r="B17">
-        <v>0.4460606060606061</v>
+        <v>0.2772727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>0.1616161616161616</v>
       </c>
       <c r="B18">
-        <v>0.4509090909090909</v>
+        <v>0.2818181818181819</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>0.1717171717171717</v>
       </c>
       <c r="B19">
-        <v>0.4557575757575758</v>
+        <v>0.2863636363636364</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="B20">
-        <v>0.4606060606060606</v>
+        <v>0.3476584022038567</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>0.1919191919191919</v>
       </c>
       <c r="B21">
-        <v>0.4654545454545455</v>
+        <v>0.3563666972757882</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>0.202020202020202</v>
       </c>
       <c r="B22">
-        <v>0.4703030303030303</v>
+        <v>0.3650749923477196</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>0.2121212121212121</v>
       </c>
       <c r="B23">
-        <v>0.4751515151515151</v>
+        <v>0.3737832874196511</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="B24">
-        <v>0.48</v>
+        <v>0.4024915824915826</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>0.2323232323232323</v>
       </c>
       <c r="B25">
-        <v>0.48</v>
+        <v>0.4066544230180594</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>0.2424242424242424</v>
       </c>
       <c r="B26">
-        <v>0.5163636363636364</v>
+        <v>0.4471808999081727</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>0.2525252525252525</v>
       </c>
       <c r="B27">
-        <v>0.5163636363636364</v>
+        <v>0.4513437404346495</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>0.2626262626262627</v>
       </c>
       <c r="B28">
-        <v>0.5163636363636364</v>
+        <v>0.4555065809611264</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>0.2727272727272728</v>
       </c>
       <c r="B29">
-        <v>0.5163636363636364</v>
+        <v>0.4596694214876033</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>0.2828282828282829</v>
       </c>
       <c r="B30">
-        <v>0.5163636363636364</v>
+        <v>0.4656504438322621</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>0.2929292929292929</v>
       </c>
       <c r="B31">
-        <v>0.5163636363636364</v>
+        <v>0.4734496479951025</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>0.303030303030303</v>
       </c>
       <c r="B32">
-        <v>0.5191184573002754</v>
+        <v>0.5003489439853077</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>0.3131313131313131</v>
       </c>
       <c r="B33">
-        <v>0.5222405876951332</v>
+        <v>0.5091888582797675</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>0.3232323232323233</v>
       </c>
       <c r="B34">
-        <v>0.5253627180899908</v>
+        <v>0.5180287725742272</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="B35">
-        <v>0.5484848484848485</v>
+        <v>0.5268686868686869</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>0.3434343434343435</v>
       </c>
       <c r="B36">
-        <v>0.551606978879706</v>
+        <v>0.532072237526783</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>0.3535353535353536</v>
       </c>
       <c r="B37">
-        <v>0.5910009182736455</v>
+        <v>0.5371227425772881</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="B38">
-        <v>0.5925619834710744</v>
+        <v>0.539724517906336</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>0.3737373737373738</v>
       </c>
       <c r="B39">
-        <v>0.5941230486685032</v>
+        <v>0.5423262932353842</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>0.3838383838383839</v>
       </c>
       <c r="B40">
-        <v>0.595684113865932</v>
+        <v>0.5449280685644322</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>0.393939393939394</v>
       </c>
       <c r="B41">
-        <v>0.5972451790633608</v>
+        <v>0.5520752984389349</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>0.4040404040404041</v>
       </c>
       <c r="B42">
-        <v>0.5988062442607898</v>
+        <v>0.563767982858892</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>0.4141414141414142</v>
       </c>
       <c r="B43">
-        <v>0.6003673094582185</v>
+        <v>0.5754606672788493</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="B44">
-        <v>0.6019283746556473</v>
+        <v>0.5871533516988062</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>0.4343434343434344</v>
       </c>
       <c r="B45">
-        <v>0.6034894398530761</v>
+        <v>0.5988460361187634</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="B46">
-        <v>0.6050505050505051</v>
+        <v>0.6105387205387205</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>0.4545454545454546</v>
       </c>
       <c r="B47">
-        <v>0.6066115702479339</v>
+        <v>0.6149586776859505</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>0.4646464646464647</v>
       </c>
       <c r="B48">
-        <v>0.6081726354453627</v>
+        <v>0.6193786348331802</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>0.4747474747474748</v>
       </c>
       <c r="B49">
-        <v>0.6097337006427915</v>
+        <v>0.6231558004285278</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="B50">
-        <v>0.6112947658402204</v>
+        <v>0.6260146923783287</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>0.494949494949495</v>
       </c>
       <c r="B51">
-        <v>0.6128558310376493</v>
+        <v>0.6288735843281298</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>0.5050505050505051</v>
       </c>
       <c r="B52">
-        <v>0.6165381083562902</v>
+        <v>0.65082338536884</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>0.5151515151515152</v>
       </c>
       <c r="B53">
-        <v>0.6223415977961433</v>
+        <v>0.6518640955004592</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="B54">
-        <v>0.6281450872359964</v>
+        <v>0.6529048056320784</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>0.5353535353535354</v>
       </c>
       <c r="B55">
-        <v>0.6339485766758494</v>
+        <v>0.6539455157636975</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="B56">
-        <v>0.6397520661157026</v>
+        <v>0.6549862258953169</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="B57">
-        <v>0.6855555555555556</v>
+        <v>0.6560269360269361</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>0.5656565656565657</v>
       </c>
       <c r="B58">
-        <v>0.6913590449954087</v>
+        <v>0.6570676461585553</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="B59">
-        <v>0.6971625344352617</v>
+        <v>0.6581083562901745</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>0.5858585858585859</v>
       </c>
       <c r="B60">
-        <v>0.7029660238751149</v>
+        <v>0.6591490664217938</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>0.595959595959596</v>
       </c>
       <c r="B61">
-        <v>0.7257575757575758</v>
+        <v>0.6601897765534129</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>0.6060606060606061</v>
       </c>
       <c r="B62">
-        <v>0.7300000000000001</v>
+        <v>0.6612304866850321</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>0.6161616161616162</v>
       </c>
       <c r="B63">
-        <v>0.7342424242424244</v>
+        <v>0.686816651362106</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="B64">
-        <v>0.7384848484848485</v>
+        <v>0.6969482705846343</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>0.6363636363636365</v>
       </c>
       <c r="B65">
-        <v>0.7427272727272728</v>
+        <v>0.7070798898071626</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>0.6464646464646465</v>
       </c>
       <c r="B66">
-        <v>0.7469696969696971</v>
+        <v>0.7172115090296909</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>0.6565656565656566</v>
       </c>
       <c r="B67">
-        <v>0.7512121212121212</v>
+        <v>0.7278328741965107</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="B68">
-        <v>0.7554545454545456</v>
+        <v>0.7384848484848485</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="B69">
-        <v>0.7560606060606061</v>
+        <v>0.7455004591368228</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>0.686868686868687</v>
       </c>
       <c r="B70">
-        <v>0.7566666666666667</v>
+        <v>0.7525160697887971</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>0.696969696969697</v>
       </c>
       <c r="B71">
-        <v>0.7572727272727273</v>
+        <v>0.7595316804407715</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>0.7070707070707072</v>
       </c>
       <c r="B72">
-        <v>0.7578787878787879</v>
+        <v>0.7666207529843894</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>0.7171717171717172</v>
       </c>
       <c r="B73">
-        <v>0.7584848484848485</v>
+        <v>0.7742607897153353</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="B74">
-        <v>0.7590909090909091</v>
+        <v>0.7991735537190083</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>0.7373737373737375</v>
       </c>
       <c r="B75">
-        <v>0.7596969696969698</v>
+        <v>0.8013590449954087</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>0.7474747474747475</v>
       </c>
       <c r="B76">
-        <v>0.7603030303030304</v>
+        <v>0.8035445362718091</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>0.7575757575757577</v>
       </c>
       <c r="B77">
-        <v>0.760909090909091</v>
+        <v>0.8057300275482095</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>0.7676767676767677</v>
       </c>
       <c r="B78">
-        <v>0.7615151515151516</v>
+        <v>0.8079155188246098</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="B79">
-        <v>0.7621212121212122</v>
+        <v>0.81010101010101</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>0.787878787878788</v>
       </c>
       <c r="B80">
-        <v>0.7627272727272728</v>
+        <v>0.8177410468319559</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>0.797979797979798</v>
       </c>
       <c r="B81">
-        <v>0.7633333333333334</v>
+        <v>0.8253810835629019</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>0.8080808080808082</v>
       </c>
       <c r="B82">
-        <v>0.7639393939393939</v>
+        <v>0.8330211202938477</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="B83">
-        <v>0.7645454545454546</v>
+        <v>0.8406611570247936</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>0.8282828282828284</v>
       </c>
       <c r="B84">
-        <v>0.7676002448729722</v>
+        <v>0.8483011937557393</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>0.8383838383838385</v>
       </c>
       <c r="B85">
-        <v>0.7991674318947047</v>
+        <v>0.8759412304866852</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>0.8484848484848485</v>
       </c>
       <c r="B86">
-        <v>0.8164921946740129</v>
+        <v>0.8835812672176309</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>0.8585858585858587</v>
       </c>
       <c r="B87">
-        <v>0.8338169574533213</v>
+        <v>0.8912213039485767</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>0.8686868686868687</v>
       </c>
       <c r="B88">
-        <v>0.8511417202326292</v>
+        <v>0.8988613406795224</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>0.8787878787878789</v>
       </c>
       <c r="B89">
-        <v>0.8684664830119377</v>
+        <v>0.9065013774104684</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="B90">
-        <v>0.9037710437710438</v>
+        <v>0.9131313131313131</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>0.8989898989898991</v>
       </c>
       <c r="B91">
-        <v>0.9107009488827671</v>
+        <v>0.9192102846648302</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>0.9090909090909092</v>
       </c>
       <c r="B92">
-        <v>0.9176308539944904</v>
+        <v>0.9252892561983472</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>0.9191919191919192</v>
       </c>
       <c r="B93">
-        <v>0.9245607591062136</v>
+        <v>0.9313682277318641</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>0.9292929292929294</v>
       </c>
       <c r="B94">
-        <v>0.931490664217937</v>
+        <v>0.9374471992653811</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>0.9393939393939394</v>
       </c>
       <c r="B95">
-        <v>0.9384205693296603</v>
+        <v>0.9435261707988982</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>0.9494949494949496</v>
       </c>
       <c r="B96">
-        <v>0.9471686562595656</v>
+        <v>0.949605142332415</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>0.9595959595959597</v>
       </c>
       <c r="B97">
-        <v>0.9577349250076523</v>
+        <v>0.9556841138659321</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>0.9696969696969697</v>
       </c>
       <c r="B98">
-        <v>0.9683011937557392</v>
+        <v>0.9617630853994491</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>0.9797979797979799</v>
       </c>
       <c r="B99">
-        <v>0.9788674625038262</v>
+        <v>0.967842056932966</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>0.9898989898989899</v>
       </c>
       <c r="B100">
-        <v>0.989433731251913</v>
+        <v>0.973921028466483</v>
       </c>
     </row>
     <row r="101" spans="1:2">
